--- a/航班正常性统计/input/Airport-Normal-20250806000000-20250807000000.xlsx
+++ b/航班正常性统计/input/Airport-Normal-20250806000000-20250807000000.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="342">
   <si>
     <t>排名</t>
   </si>
@@ -65,742 +65,973 @@
     <t>1</t>
   </si>
   <si>
+    <t>ZWWW</t>
+  </si>
+  <si>
+    <t>乌鲁木齐/天山</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>90.88%</t>
+  </si>
+  <si>
+    <t>95.65%</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ZBAD</t>
+  </si>
+  <si>
+    <t>北京/大兴</t>
+  </si>
+  <si>
+    <t>557</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>87.04%</t>
+  </si>
+  <si>
+    <t>90.37%</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>ZSQD</t>
+  </si>
+  <si>
+    <t>青岛/胶东</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>82.42%</t>
+  </si>
+  <si>
+    <t>91.40%</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>ZYTL</t>
+  </si>
+  <si>
+    <t>大连/周水子</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>81.73%</t>
+  </si>
+  <si>
+    <t>89.57%</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>ZUCK</t>
+  </si>
+  <si>
+    <t>重庆/江北</t>
+  </si>
+  <si>
+    <t>613</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>382</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81.44%</t>
+  </si>
+  <si>
+    <t>87.21%</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>ZSCN</t>
+  </si>
+  <si>
+    <t>南昌/昌北</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>80.88%</t>
+  </si>
+  <si>
+    <t>87.14%</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>ZSAM</t>
+  </si>
+  <si>
+    <t>厦门/高崎</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>80.08%</t>
+  </si>
+  <si>
+    <t>88.33%</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>ZYHB</t>
+  </si>
+  <si>
+    <t>哈尔滨/太平</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>80.00%</t>
+  </si>
+  <si>
+    <t>92.99%</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>ZLXY</t>
+  </si>
+  <si>
+    <t>西安/咸阳</t>
+  </si>
+  <si>
+    <t>601</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>393</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>79.91%</t>
+  </si>
+  <si>
+    <t>85.43%</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>ZBTJ</t>
+  </si>
+  <si>
+    <t>天津/滨海</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>79.89%</t>
+  </si>
+  <si>
+    <t>85.20%</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>ZLLL</t>
+  </si>
+  <si>
+    <t>兰州/中川</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>78.65%</t>
+  </si>
+  <si>
+    <t>84.26%</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>ZSYT</t>
+  </si>
+  <si>
+    <t>烟台/蓬莱</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>77.55%</t>
+  </si>
+  <si>
+    <t>87.00%</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>ZBHH</t>
+  </si>
+  <si>
+    <t>呼和浩特/白塔</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>77.38%</t>
+  </si>
+  <si>
+    <t>86.29%</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>ZGHA</t>
+  </si>
+  <si>
+    <t>长沙/黄花</t>
+  </si>
+  <si>
+    <t>421</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>76.51%</t>
+  </si>
+  <si>
+    <t>84.19%</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>ZYTX</t>
+  </si>
+  <si>
+    <t>沈阳/桃仙</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>76.28%</t>
+  </si>
+  <si>
+    <t>87.78%</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>ZSOF</t>
+  </si>
+  <si>
+    <t>合肥/新桥</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>76.27%</t>
+  </si>
+  <si>
+    <t>88.00%</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>ZYCC</t>
   </si>
   <si>
     <t>长春/龙嘉</t>
   </si>
   <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>75.82%</t>
+  </si>
+  <si>
+    <t>85.89%</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>ZBSJ</t>
+  </si>
+  <si>
+    <t>石家庄/正定</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>75.45%</t>
+  </si>
+  <si>
+    <t>86.32%</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>ZSSS</t>
+  </si>
+  <si>
+    <t>上海/虹桥</t>
+  </si>
+  <si>
+    <t>423</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>74.55%</t>
+  </si>
+  <si>
+    <t>81.84%</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>ZUGY</t>
+  </si>
+  <si>
+    <t>贵阳/龙洞堡</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>74.36%</t>
+  </si>
+  <si>
+    <t>80.59%</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>ZBYN</t>
+  </si>
+  <si>
+    <t>太原/武宿</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>74.23%</t>
+  </si>
+  <si>
+    <t>86.75%</t>
+  </si>
+  <si>
+    <t>ZGNN</t>
+  </si>
+  <si>
+    <t>南宁/吴圩</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>73.73%</t>
+  </si>
+  <si>
+    <t>80.51%</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>ZSHC</t>
+  </si>
+  <si>
+    <t>杭州/萧山</t>
+  </si>
+  <si>
+    <t>590</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>72.77%</t>
+  </si>
+  <si>
+    <t>85.50%</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>ZBAA</t>
+  </si>
+  <si>
+    <t>北京/首都</t>
+  </si>
+  <si>
+    <t>653</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>72.69%</t>
+  </si>
+  <si>
+    <t>79.61%</t>
+  </si>
+  <si>
+    <t>ZSFZ</t>
+  </si>
+  <si>
+    <t>福州/长乐</t>
+  </si>
+  <si>
     <t>226</t>
   </si>
   <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>72.14%</t>
+  </si>
+  <si>
+    <t>85.52%</t>
+  </si>
+  <si>
+    <t>ZSWZ</t>
+  </si>
+  <si>
+    <t>温州/龙湾</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>72.09%</t>
+  </si>
+  <si>
+    <t>89.71%</t>
+  </si>
+  <si>
+    <t>ZPPP</t>
+  </si>
+  <si>
+    <t>昆明/长水</t>
+  </si>
+  <si>
+    <t>633</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>71.88%</t>
+  </si>
+  <si>
+    <t>77.16%</t>
+  </si>
+  <si>
+    <t>ZHHH</t>
+  </si>
+  <si>
+    <t>武汉/天河</t>
+  </si>
+  <si>
+    <t>431</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>71.33%</t>
+  </si>
+  <si>
+    <t>82.55%</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>ZSPD</t>
+  </si>
+  <si>
+    <t>上海/浦东</t>
+  </si>
+  <si>
+    <t>825</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>488</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>70.15%</t>
+  </si>
+  <si>
+    <t>78.71%</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>ZSNJ</t>
+  </si>
+  <si>
+    <t>南京/禄口</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>69.68%</t>
+  </si>
+  <si>
+    <t>81.13%</t>
+  </si>
+  <si>
+    <t>ZUUU</t>
+  </si>
+  <si>
+    <t>成都/双流</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>69.58%</t>
+  </si>
+  <si>
+    <t>75.68%</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>ZHCC</t>
+  </si>
+  <si>
+    <t>郑州/新郑</t>
+  </si>
+  <si>
+    <t>489</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>67.28%</t>
+  </si>
+  <si>
+    <t>76.81%</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>ZSNB</t>
+  </si>
+  <si>
+    <t>宁波/栎社</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>66.67%</t>
+  </si>
+  <si>
+    <t>79.14%</t>
+  </si>
+  <si>
     <t>34</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>100.00%</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>ZWWW</t>
-  </si>
-  <si>
-    <t>乌鲁木齐/天山</t>
-  </si>
-  <si>
-    <t>338</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>98.80%</t>
-  </si>
-  <si>
-    <t>97.65%</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>ZYHB</t>
-  </si>
-  <si>
-    <t>哈尔滨/太平</t>
-  </si>
-  <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>98.33%</t>
-  </si>
-  <si>
-    <t>98.36%</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>ZBAD</t>
-  </si>
-  <si>
-    <t>北京/大兴</t>
-  </si>
-  <si>
-    <t>545</t>
-  </si>
-  <si>
-    <t>113</t>
+    <t>ZLIC</t>
+  </si>
+  <si>
+    <t>银川/河东</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>64.91%</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>ZSJN</t>
+  </si>
+  <si>
+    <t>济南/遥墙</t>
+  </si>
+  <si>
+    <t>295</t>
   </si>
   <si>
     <t>115</t>
   </si>
   <si>
-    <t>97.41%</t>
-  </si>
-  <si>
-    <t>97.46%</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>ZSQD</t>
-  </si>
-  <si>
-    <t>青岛/胶东</t>
-  </si>
-  <si>
-    <t>397</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>95.89%</t>
-  </si>
-  <si>
-    <t>91.03%</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>ZSOF</t>
-  </si>
-  <si>
-    <t>合肥/新桥</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>95.00%</t>
-  </si>
-  <si>
-    <t>90.48%</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>ZUCK</t>
-  </si>
-  <si>
-    <t>重庆/江北</t>
-  </si>
-  <si>
-    <t>593</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>94.70%</t>
-  </si>
-  <si>
-    <t>94.12%</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>ZLXY</t>
-  </si>
-  <si>
-    <t>西安/咸阳</t>
-  </si>
-  <si>
-    <t>124</t>
+    <t>154</t>
+  </si>
+  <si>
+    <t>60.85%</t>
+  </si>
+  <si>
+    <t>77.78%</t>
+  </si>
+  <si>
+    <t>ZJSY</t>
+  </si>
+  <si>
+    <t>三亚/凤凰</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>52.94%</t>
+  </si>
+  <si>
+    <t>64.61%</t>
+  </si>
+  <si>
+    <t>ZGSD</t>
+  </si>
+  <si>
+    <t>珠海/金湾</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>50.96%</t>
+  </si>
+  <si>
+    <t>74.58%</t>
+  </si>
+  <si>
+    <t>ZUTF</t>
+  </si>
+  <si>
+    <t>成都/天府</t>
+  </si>
+  <si>
+    <t>701</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>48.69%</t>
+  </si>
+  <si>
+    <t>55.98%</t>
+  </si>
+  <si>
+    <t>ZGGG</t>
+  </si>
+  <si>
+    <t>广州/白云</t>
+  </si>
+  <si>
+    <t>920</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>433</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>45.03%</t>
+  </si>
+  <si>
+    <t>ZJHK</t>
+  </si>
+  <si>
+    <t>海口/美兰</t>
+  </si>
+  <si>
+    <t>384</t>
   </si>
   <si>
     <t>126</t>
   </si>
   <si>
-    <t>94.66%</t>
-  </si>
-  <si>
-    <t>94.03%</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>ZSCN</t>
-  </si>
-  <si>
-    <t>南昌/昌北</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>94.59%</t>
-  </si>
-  <si>
-    <t>90.00%</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>ZGHA</t>
-  </si>
-  <si>
-    <t>长沙/黄花</t>
-  </si>
-  <si>
-    <t>410</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>94.52%</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>ZSSS</t>
-  </si>
-  <si>
-    <t>上海/虹桥</t>
-  </si>
-  <si>
-    <t>415</t>
-  </si>
-  <si>
-    <t>94.25%</t>
-  </si>
-  <si>
-    <t>92.22%</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>ZSAM</t>
-  </si>
-  <si>
-    <t>厦门/高崎</t>
-  </si>
-  <si>
-    <t>340</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>94.20%</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>ZUGY</t>
-  </si>
-  <si>
-    <t>贵阳/龙洞堡</t>
-  </si>
-  <si>
-    <t>335</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>93.75%</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>ZSNB</t>
-  </si>
-  <si>
-    <t>宁波/栎社</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>93.33%</t>
-  </si>
-  <si>
-    <t>90.32%</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>ZLLL</t>
-  </si>
-  <si>
-    <t>兰州/中川</t>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>92.68%</t>
-  </si>
-  <si>
-    <t>95.24%</t>
-  </si>
-  <si>
-    <t>ZBHH</t>
-  </si>
-  <si>
-    <t>呼和浩特/白塔</t>
-  </si>
-  <si>
-    <t>244</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>93.18%</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>ZPPP</t>
-  </si>
-  <si>
-    <t>昆明/长水</t>
-  </si>
-  <si>
-    <t>618</t>
-  </si>
-  <si>
-    <t>92.65%</t>
-  </si>
-  <si>
-    <t>92.09%</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>ZBTJ</t>
-  </si>
-  <si>
-    <t>天津/滨海</t>
-  </si>
-  <si>
-    <t>281</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>92.59%</t>
-  </si>
-  <si>
-    <t>92.73%</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>ZYTX</t>
-  </si>
-  <si>
-    <t>沈阳/桃仙</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>92.42%</t>
-  </si>
-  <si>
-    <t>ZBSJ</t>
-  </si>
-  <si>
-    <t>石家庄/正定</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>91.67%</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>ZGNN</t>
-  </si>
-  <si>
-    <t>南宁/吴圩</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>91.18%</t>
-  </si>
-  <si>
-    <t>91.43%</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>ZUUU</t>
-  </si>
-  <si>
-    <t>成都/双流</t>
-  </si>
-  <si>
-    <t>341</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>84.54%</t>
-  </si>
-  <si>
-    <t>ZBAA</t>
-  </si>
-  <si>
-    <t>北京/首都</t>
-  </si>
-  <si>
-    <t>648</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>89.61%</t>
-  </si>
-  <si>
-    <t>90.57%</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>ZSYT</t>
-  </si>
-  <si>
-    <t>烟台/蓬莱</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>88.46%</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>ZUTF</t>
-  </si>
-  <si>
-    <t>成都/天府</t>
-  </si>
-  <si>
-    <t>693</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>88.28%</t>
-  </si>
-  <si>
-    <t>84.87%</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>ZBYN</t>
-  </si>
-  <si>
-    <t>太原/武宿</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>87.10%</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>ZHHH</t>
-  </si>
-  <si>
-    <t>武汉/天河</t>
-  </si>
-  <si>
-    <t>426</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>86.67%</t>
-  </si>
-  <si>
-    <t>82.54%</t>
-  </si>
-  <si>
-    <t>ZGSD</t>
-  </si>
-  <si>
-    <t>珠海/金湾</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>ZLIC</t>
-  </si>
-  <si>
-    <t>银川/河东</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>ZHCC</t>
-  </si>
-  <si>
-    <t>郑州/新郑</t>
-  </si>
-  <si>
-    <t>472</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>85.29%</t>
-  </si>
-  <si>
-    <t>82.86%</t>
-  </si>
-  <si>
-    <t>ZYTL</t>
-  </si>
-  <si>
-    <t>大连/周水子</t>
-  </si>
-  <si>
-    <t>307</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>83.93%</t>
-  </si>
-  <si>
-    <t>85.96%</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>ZSHC</t>
-  </si>
-  <si>
-    <t>杭州/萧山</t>
-  </si>
-  <si>
-    <t>568</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>83.48%</t>
-  </si>
-  <si>
-    <t>91.74%</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>ZSNJ</t>
-  </si>
-  <si>
-    <t>南京/禄口</t>
-  </si>
-  <si>
-    <t>452</t>
-  </si>
-  <si>
-    <t>83.33%</t>
-  </si>
-  <si>
-    <t>88.89%</t>
-  </si>
-  <si>
-    <t>ZSJN</t>
-  </si>
-  <si>
-    <t>济南/遥墙</t>
-  </si>
-  <si>
-    <t>289</t>
-  </si>
-  <si>
-    <t>82.05%</t>
-  </si>
-  <si>
-    <t>85.00%</t>
-  </si>
-  <si>
-    <t>ZSPD</t>
-  </si>
-  <si>
-    <t>上海/浦东</t>
-  </si>
-  <si>
-    <t>811</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>80.12%</t>
-  </si>
-  <si>
-    <t>80.00%</t>
-  </si>
-  <si>
-    <t>ZSWZ</t>
-  </si>
-  <si>
-    <t>温州/龙湾</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>77.78%</t>
-  </si>
-  <si>
-    <t>96.55%</t>
-  </si>
-  <si>
-    <t>ZSFZ</t>
-  </si>
-  <si>
-    <t>福州/长乐</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>76.47%</t>
-  </si>
-  <si>
-    <t>86.11%</t>
-  </si>
-  <si>
-    <t>ZJHK</t>
-  </si>
-  <si>
-    <t>海口/美兰</t>
-  </si>
-  <si>
-    <t>356</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>66.67%</t>
-  </si>
-  <si>
-    <t>75.44%</t>
+    <t>44.49%</t>
+  </si>
+  <si>
+    <t>65.68%</t>
   </si>
   <si>
     <t>ZGSZ</t>
@@ -809,58 +1040,19 @@
     <t>深圳/宝安</t>
   </si>
   <si>
-    <t>754</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>63.95%</t>
-  </si>
-  <si>
-    <t>83.17%</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>ZJSY</t>
-  </si>
-  <si>
-    <t>三亚/凤凰</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>51.43%</t>
-  </si>
-  <si>
-    <t>48.65%</t>
-  </si>
-  <si>
-    <t>ZGGG</t>
-  </si>
-  <si>
-    <t>广州/白云</t>
-  </si>
-  <si>
-    <t>877</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>9.71%</t>
-  </si>
-  <si>
-    <t>41.61%</t>
+    <t>776</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>28.49%</t>
+  </si>
+  <si>
+    <t>69.72%</t>
   </si>
 </sst>
 </file>
@@ -2069,7 +2261,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2129,1422 +2321,1422 @@
         <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1" spans="1:11">
       <c r="A16" s="2" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1" spans="1:11">
       <c r="A17" s="2" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1" spans="1:11">
       <c r="A18" s="2" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="14" customHeight="1" spans="1:11">
       <c r="A19" s="2" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1" spans="1:11">
       <c r="A20" s="2" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1" spans="1:11">
       <c r="A21" s="2" t="s">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:11">
       <c r="A22" s="2" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1" spans="1:11">
       <c r="A23" s="2" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>23</v>
+        <v>197</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1" spans="1:11">
       <c r="A24" s="2" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>125</v>
+        <v>207</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1" spans="1:11">
       <c r="A25" s="2" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>171</v>
+        <v>88</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>27</v>
+        <v>214</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1" spans="1:11">
       <c r="A26" s="2" t="s">
-        <v>176</v>
+        <v>17</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>181</v>
+        <v>222</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1" spans="1:11">
       <c r="A27" s="2" t="s">
-        <v>183</v>
+        <v>63</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>186</v>
+        <v>226</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>35</v>
+        <v>228</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>111</v>
+        <v>230</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1" spans="1:11">
       <c r="A28" s="2" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>66</v>
+        <v>236</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>100</v>
+        <v>242</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>125</v>
+        <v>243</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>19</v>
+        <v>244</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>65</v>
+        <v>246</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1" spans="1:11">
       <c r="A30" s="2" t="s">
-        <v>189</v>
+        <v>247</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>100</v>
+        <v>251</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>100</v>
+        <v>252</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>194</v>
+        <v>254</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>194</v>
+        <v>255</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1" spans="1:11">
       <c r="A31" s="2" t="s">
-        <v>187</v>
+        <v>256</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>202</v>
+        <v>257</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>203</v>
+        <v>258</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>204</v>
+        <v>259</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>205</v>
+        <v>260</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>205</v>
+        <v>261</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>206</v>
+        <v>263</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>207</v>
+        <v>264</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1" spans="1:11">
       <c r="A32" s="2" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>208</v>
+        <v>265</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>212</v>
+        <v>268</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>213</v>
+        <v>269</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1" spans="1:11">
       <c r="A33" s="2" t="s">
-        <v>215</v>
+        <v>271</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>216</v>
+        <v>272</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>217</v>
+        <v>273</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>218</v>
+        <v>274</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>55</v>
+        <v>276</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>221</v>
+        <v>277</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1" spans="1:11">
       <c r="A34" s="2" t="s">
-        <v>223</v>
+        <v>279</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>225</v>
+        <v>281</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>226</v>
+        <v>282</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>32</v>
+        <v>283</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>93</v>
+        <v>284</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>227</v>
+        <v>285</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>228</v>
+        <v>286</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1" spans="1:11">
       <c r="A35" s="2" t="s">
-        <v>154</v>
+        <v>287</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>229</v>
+        <v>288</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>231</v>
+        <v>290</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>155</v>
+        <v>291</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>58</v>
+        <v>292</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>232</v>
+        <v>293</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>233</v>
+        <v>149</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1" spans="1:11">
       <c r="A36" s="2" t="s">
-        <v>155</v>
+        <v>294</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>234</v>
+        <v>295</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>235</v>
+        <v>296</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>238</v>
+        <v>299</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>241</v>
+        <v>301</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1" spans="1:11">
       <c r="A37" s="2" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>243</v>
+        <v>303</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>244</v>
+        <v>304</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>109</v>
+        <v>298</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>245</v>
+        <v>305</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>246</v>
+        <v>306</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1" spans="1:11">
       <c r="A38" s="2" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>247</v>
+        <v>307</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>248</v>
+        <v>308</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>249</v>
+        <v>309</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>189</v>
+        <v>310</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>154</v>
+        <v>311</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>250</v>
+        <v>312</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>251</v>
+        <v>313</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1" spans="1:11">
       <c r="A39" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>252</v>
+        <v>314</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>253</v>
+        <v>315</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>254</v>
+        <v>316</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>78</v>
+        <v>317</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>255</v>
+        <v>318</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>139</v>
+        <v>319</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>256</v>
+        <v>320</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>257</v>
+        <v>321</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1" spans="1:11">
       <c r="A40" s="2" t="s">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>258</v>
+        <v>322</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>259</v>
+        <v>323</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>260</v>
+        <v>324</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>261</v>
+        <v>325</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>262</v>
+        <v>326</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>154</v>
+        <v>327</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>263</v>
+        <v>328</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1" spans="1:11">
       <c r="A41" s="2" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>266</v>
+        <v>329</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>267</v>
+        <v>330</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>268</v>
+        <v>331</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>131</v>
+        <v>332</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>269</v>
+        <v>333</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>270</v>
+        <v>334</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1" spans="1:11">
       <c r="A42" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>271</v>
+        <v>335</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>272</v>
+        <v>336</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>273</v>
+        <v>337</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>81</v>
+        <v>338</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>274</v>
+        <v>137</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>275</v>
+        <v>339</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>276</v>
+        <v>340</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>277</v>
+        <v>341</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
